--- a/Base/Data/Inputs/Input_data_example.xlsx
+++ b/Base/Data/Inputs/Input_data_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data_base_case" sheetId="79" r:id="rId1"/>
@@ -3153,7 +3153,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3487,6 +3487,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3510,7 +3514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4424,13 +4427,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="151"/>
+      <c r="A1" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="51" t="s">
         <v>109</v>
       </c>
@@ -4494,13 +4497,13 @@
     </row>
     <row r="2" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="155" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="38" t="s">
@@ -4570,9 +4573,9 @@
     </row>
     <row r="3" spans="1:25" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="153"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="38" t="s">
         <v>88</v>
       </c>
@@ -4639,9 +4642,9 @@
     </row>
     <row r="4" spans="1:25" s="6" customFormat="1" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="153"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="38"/>
       <c r="F4" s="15" t="str">
         <f>F2&amp;F3</f>
@@ -4724,9 +4727,9 @@
       </c>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="153"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="56" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +4814,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" s="82" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="154" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="78" t="s">
@@ -4890,7 +4893,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="152"/>
+      <c r="A7" s="154"/>
       <c r="B7" s="78" t="s">
         <v>112</v>
       </c>
@@ -4968,7 +4971,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="152"/>
+      <c r="A8" s="154"/>
       <c r="B8" s="78" t="s">
         <v>111</v>
       </c>
@@ -4988,7 +4991,7 @@
       <c r="G8" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="158">
+      <c r="H8" s="151">
         <f>(2.2/(19.9/3.6))*10^9</f>
         <v>397989949.74874377</v>
       </c>
@@ -5047,7 +5050,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
+      <c r="A9" s="154"/>
       <c r="B9" s="88" t="s">
         <v>112</v>
       </c>
@@ -5067,7 +5070,7 @@
       <c r="G9" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="158">
+      <c r="H9" s="151">
         <f>(2.2/(18.6/3.6))*10^9</f>
         <v>425806451.61290324</v>
       </c>
@@ -5128,7 +5131,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" s="93" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="152"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="88" t="s">
         <v>112</v>
       </c>
@@ -5148,7 +5151,7 @@
       <c r="G10" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="158">
+      <c r="H10" s="151">
         <f>(2.2/(18.6/3.6))*10^9</f>
         <v>425806451.61290324</v>
       </c>
@@ -5210,7 +5213,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="95" t="s">
         <v>112</v>
       </c>
@@ -5230,7 +5233,7 @@
       <c r="G11" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="158">
+      <c r="H11" s="151">
         <f>(2.2/(120/3.6))*10^9</f>
         <v>66000000</v>
       </c>
@@ -5288,7 +5291,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="152"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="20" t="s">
         <v>189</v>
       </c>
@@ -5365,7 +5368,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" s="112" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="152"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="108" t="s">
         <v>116</v>
       </c>
@@ -5445,7 +5448,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" s="120" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="152"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="116" t="s">
         <v>116</v>
       </c>
@@ -5526,7 +5529,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="152"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="20" t="s">
         <v>113</v>
       </c>
@@ -5603,7 +5606,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="152"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="137" t="s">
         <v>114</v>
       </c>
@@ -5680,7 +5683,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="152"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="137" t="s">
         <v>115</v>
       </c>
@@ -5757,7 +5760,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="152"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="101" t="s">
         <v>26</v>
       </c>
@@ -5834,7 +5837,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="152"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="101" t="s">
         <v>27</v>
       </c>
@@ -5911,7 +5914,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="152"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="101" t="s">
         <v>112</v>
       </c>
@@ -5989,7 +5992,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="152"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="72" t="s">
         <v>14</v>
       </c>
@@ -6065,7 +6068,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="152"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="72" t="s">
         <v>15</v>
       </c>
@@ -6141,7 +6144,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" s="134" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="152"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="130" t="s">
         <v>16</v>
       </c>
@@ -6218,7 +6221,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="154" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -6296,7 +6299,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="152"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -6373,7 +6376,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="152"/>
+      <c r="A26" s="154"/>
       <c r="B26" s="12" t="str">
         <f>CONCATENATE("RPU_"&amp;D26)</f>
         <v>RPU_ON_SP198-HH100</v>
@@ -6451,7 +6454,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="152"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="12" t="str">
         <f t="shared" ref="B27:B37" si="11">CONCATENATE("RPU_"&amp;D27)</f>
         <v>RPU_ON_SP198-HH150</v>
@@ -6529,7 +6532,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="152"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_ON_SP237-HH100</v>
@@ -6607,7 +6610,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="152"/>
+      <c r="A29" s="154"/>
       <c r="B29" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_ON_SP237-HH150</v>
@@ -6685,7 +6688,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="152"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_ON_SP277-HH100</v>
@@ -6763,7 +6766,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="152"/>
+      <c r="A31" s="154"/>
       <c r="B31" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_ON_SP277-HH150</v>
@@ -6841,7 +6844,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="152"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_ON_SP321-HH100</v>
@@ -6919,7 +6922,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="152"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_ON_SP321-HH150</v>
@@ -6997,7 +7000,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="152"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_OFF_SP379-HH100</v>
@@ -7075,7 +7078,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="152"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_OFF_SP379-HH150</v>
@@ -7153,7 +7156,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="152"/>
+      <c r="A36" s="154"/>
       <c r="B36" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_OFF_SP450-HH100</v>
@@ -7231,7 +7234,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="152"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="12" t="str">
         <f t="shared" si="11"/>
         <v>RPU_OFF_SP450-HH150</v>
@@ -7309,7 +7312,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="152"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
@@ -7386,7 +7389,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="152"/>
+      <c r="A39" s="154"/>
       <c r="B39" s="12" t="s">
         <v>178</v>
       </c>
@@ -7462,7 +7465,7 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="152"/>
+      <c r="A40" s="154"/>
       <c r="B40" s="12" t="s">
         <v>14</v>
       </c>
@@ -7539,7 +7542,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="152"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="12" t="s">
         <v>15</v>
       </c>
@@ -7616,7 +7619,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="152"/>
+      <c r="A42" s="154"/>
       <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
@@ -7714,7 +7717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8847,31 +8850,31 @@
         <v>ON_SP237-HH100</v>
       </c>
       <c r="C28" s="55">
-        <v>1</v>
-      </c>
-      <c r="D28" s="55">
-        <v>1</v>
-      </c>
-      <c r="E28" s="55">
-        <v>1</v>
-      </c>
-      <c r="F28" s="55">
-        <v>1</v>
-      </c>
-      <c r="G28" s="55">
-        <v>1</v>
-      </c>
-      <c r="H28" s="55">
-        <v>1</v>
-      </c>
-      <c r="I28" s="55">
-        <v>1</v>
-      </c>
-      <c r="J28" s="55">
-        <v>1</v>
-      </c>
-      <c r="K28" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D28" s="150">
+        <v>0</v>
+      </c>
+      <c r="E28" s="150">
+        <v>0</v>
+      </c>
+      <c r="F28" s="150">
+        <v>0</v>
+      </c>
+      <c r="G28" s="150">
+        <v>0</v>
+      </c>
+      <c r="H28" s="150">
+        <v>0</v>
+      </c>
+      <c r="I28" s="150">
+        <v>0</v>
+      </c>
+      <c r="J28" s="150">
+        <v>0</v>
+      </c>
+      <c r="K28" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -8883,32 +8886,32 @@
         <f>Data_base_case!D29</f>
         <v>ON_SP237-HH150</v>
       </c>
-      <c r="C29" s="55">
-        <v>1</v>
-      </c>
-      <c r="D29" s="55">
-        <v>1</v>
-      </c>
-      <c r="E29" s="55">
-        <v>1</v>
-      </c>
-      <c r="F29" s="55">
-        <v>1</v>
-      </c>
-      <c r="G29" s="55">
-        <v>1</v>
-      </c>
-      <c r="H29" s="55">
-        <v>1</v>
-      </c>
-      <c r="I29" s="55">
-        <v>1</v>
-      </c>
-      <c r="J29" s="55">
-        <v>1</v>
-      </c>
-      <c r="K29" s="55">
-        <v>1</v>
+      <c r="C29" s="150">
+        <v>0</v>
+      </c>
+      <c r="D29" s="150">
+        <v>0</v>
+      </c>
+      <c r="E29" s="150">
+        <v>0</v>
+      </c>
+      <c r="F29" s="150">
+        <v>0</v>
+      </c>
+      <c r="G29" s="150">
+        <v>0</v>
+      </c>
+      <c r="H29" s="150">
+        <v>0</v>
+      </c>
+      <c r="I29" s="150">
+        <v>0</v>
+      </c>
+      <c r="J29" s="150">
+        <v>0</v>
+      </c>
+      <c r="K29" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -8920,32 +8923,32 @@
         <f>Data_base_case!D30</f>
         <v>ON_SP277-HH100</v>
       </c>
-      <c r="C30" s="55">
-        <v>1</v>
-      </c>
-      <c r="D30" s="55">
-        <v>1</v>
-      </c>
-      <c r="E30" s="55">
-        <v>1</v>
-      </c>
-      <c r="F30" s="55">
-        <v>1</v>
-      </c>
-      <c r="G30" s="55">
-        <v>1</v>
-      </c>
-      <c r="H30" s="55">
-        <v>1</v>
-      </c>
-      <c r="I30" s="55">
-        <v>1</v>
-      </c>
-      <c r="J30" s="55">
-        <v>1</v>
-      </c>
-      <c r="K30" s="55">
-        <v>1</v>
+      <c r="C30" s="150">
+        <v>0</v>
+      </c>
+      <c r="D30" s="150">
+        <v>0</v>
+      </c>
+      <c r="E30" s="150">
+        <v>0</v>
+      </c>
+      <c r="F30" s="150">
+        <v>0</v>
+      </c>
+      <c r="G30" s="150">
+        <v>0</v>
+      </c>
+      <c r="H30" s="150">
+        <v>0</v>
+      </c>
+      <c r="I30" s="150">
+        <v>0</v>
+      </c>
+      <c r="J30" s="150">
+        <v>0</v>
+      </c>
+      <c r="K30" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -8957,32 +8960,32 @@
         <f>Data_base_case!D31</f>
         <v>ON_SP277-HH150</v>
       </c>
-      <c r="C31" s="55">
-        <v>1</v>
-      </c>
-      <c r="D31" s="55">
-        <v>1</v>
-      </c>
-      <c r="E31" s="55">
-        <v>1</v>
-      </c>
-      <c r="F31" s="55">
-        <v>1</v>
-      </c>
-      <c r="G31" s="55">
-        <v>1</v>
-      </c>
-      <c r="H31" s="55">
-        <v>1</v>
-      </c>
-      <c r="I31" s="55">
-        <v>1</v>
-      </c>
-      <c r="J31" s="55">
-        <v>1</v>
-      </c>
-      <c r="K31" s="55">
-        <v>1</v>
+      <c r="C31" s="150">
+        <v>0</v>
+      </c>
+      <c r="D31" s="150">
+        <v>0</v>
+      </c>
+      <c r="E31" s="150">
+        <v>0</v>
+      </c>
+      <c r="F31" s="150">
+        <v>0</v>
+      </c>
+      <c r="G31" s="150">
+        <v>0</v>
+      </c>
+      <c r="H31" s="150">
+        <v>0</v>
+      </c>
+      <c r="I31" s="150">
+        <v>0</v>
+      </c>
+      <c r="J31" s="150">
+        <v>0</v>
+      </c>
+      <c r="K31" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -8994,32 +8997,32 @@
         <f>Data_base_case!D32</f>
         <v>ON_SP321-HH100</v>
       </c>
-      <c r="C32" s="55">
-        <v>1</v>
-      </c>
-      <c r="D32" s="55">
-        <v>1</v>
-      </c>
-      <c r="E32" s="55">
-        <v>1</v>
-      </c>
-      <c r="F32" s="55">
-        <v>1</v>
-      </c>
-      <c r="G32" s="55">
-        <v>1</v>
-      </c>
-      <c r="H32" s="55">
-        <v>1</v>
-      </c>
-      <c r="I32" s="55">
-        <v>1</v>
-      </c>
-      <c r="J32" s="55">
-        <v>1</v>
-      </c>
-      <c r="K32" s="55">
-        <v>1</v>
+      <c r="C32" s="150">
+        <v>0</v>
+      </c>
+      <c r="D32" s="150">
+        <v>0</v>
+      </c>
+      <c r="E32" s="150">
+        <v>0</v>
+      </c>
+      <c r="F32" s="150">
+        <v>0</v>
+      </c>
+      <c r="G32" s="150">
+        <v>0</v>
+      </c>
+      <c r="H32" s="150">
+        <v>0</v>
+      </c>
+      <c r="I32" s="150">
+        <v>0</v>
+      </c>
+      <c r="J32" s="150">
+        <v>0</v>
+      </c>
+      <c r="K32" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -9031,32 +9034,32 @@
         <f>Data_base_case!D33</f>
         <v>ON_SP321-HH150</v>
       </c>
-      <c r="C33" s="55">
-        <v>1</v>
-      </c>
-      <c r="D33" s="55">
-        <v>1</v>
-      </c>
-      <c r="E33" s="55">
-        <v>1</v>
-      </c>
-      <c r="F33" s="55">
-        <v>1</v>
-      </c>
-      <c r="G33" s="55">
-        <v>1</v>
-      </c>
-      <c r="H33" s="55">
-        <v>1</v>
-      </c>
-      <c r="I33" s="55">
-        <v>1</v>
-      </c>
-      <c r="J33" s="55">
-        <v>1</v>
-      </c>
-      <c r="K33" s="55">
-        <v>1</v>
+      <c r="C33" s="150">
+        <v>0</v>
+      </c>
+      <c r="D33" s="150">
+        <v>0</v>
+      </c>
+      <c r="E33" s="150">
+        <v>0</v>
+      </c>
+      <c r="F33" s="150">
+        <v>0</v>
+      </c>
+      <c r="G33" s="150">
+        <v>0</v>
+      </c>
+      <c r="H33" s="150">
+        <v>0</v>
+      </c>
+      <c r="I33" s="150">
+        <v>0</v>
+      </c>
+      <c r="J33" s="150">
+        <v>0</v>
+      </c>
+      <c r="K33" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -9068,32 +9071,32 @@
         <f>Data_base_case!D34</f>
         <v>OFF_SP379-HH100</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1</v>
+      <c r="C34" s="150">
+        <v>0</v>
+      </c>
+      <c r="D34" s="150">
+        <v>0</v>
+      </c>
+      <c r="E34" s="150">
+        <v>0</v>
+      </c>
+      <c r="F34" s="150">
+        <v>0</v>
+      </c>
+      <c r="G34" s="150">
+        <v>0</v>
+      </c>
+      <c r="H34" s="150">
+        <v>0</v>
+      </c>
+      <c r="I34" s="150">
+        <v>0</v>
+      </c>
+      <c r="J34" s="150">
+        <v>0</v>
+      </c>
+      <c r="K34" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -9105,32 +9108,32 @@
         <f>Data_base_case!D35</f>
         <v>OFF_SP379-HH150</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1</v>
+      <c r="C35" s="150">
+        <v>0</v>
+      </c>
+      <c r="D35" s="150">
+        <v>0</v>
+      </c>
+      <c r="E35" s="150">
+        <v>0</v>
+      </c>
+      <c r="F35" s="150">
+        <v>0</v>
+      </c>
+      <c r="G35" s="150">
+        <v>0</v>
+      </c>
+      <c r="H35" s="150">
+        <v>0</v>
+      </c>
+      <c r="I35" s="150">
+        <v>0</v>
+      </c>
+      <c r="J35" s="150">
+        <v>0</v>
+      </c>
+      <c r="K35" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -9142,32 +9145,32 @@
         <f>Data_base_case!D36</f>
         <v>OFF_SP450-HH100</v>
       </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
+      <c r="C36" s="150">
+        <v>0</v>
+      </c>
+      <c r="D36" s="150">
+        <v>0</v>
+      </c>
+      <c r="E36" s="150">
+        <v>0</v>
+      </c>
+      <c r="F36" s="150">
+        <v>0</v>
+      </c>
+      <c r="G36" s="150">
+        <v>0</v>
+      </c>
+      <c r="H36" s="150">
+        <v>0</v>
+      </c>
+      <c r="I36" s="150">
+        <v>0</v>
+      </c>
+      <c r="J36" s="150">
+        <v>0</v>
+      </c>
+      <c r="K36" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -9179,32 +9182,32 @@
         <f>Data_base_case!D37</f>
         <v>OFF_SP450-HH150</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
+      <c r="C37" s="150">
+        <v>0</v>
+      </c>
+      <c r="D37" s="150">
+        <v>0</v>
+      </c>
+      <c r="E37" s="150">
+        <v>0</v>
+      </c>
+      <c r="F37" s="150">
+        <v>0</v>
+      </c>
+      <c r="G37" s="150">
+        <v>0</v>
+      </c>
+      <c r="H37" s="150">
+        <v>0</v>
+      </c>
+      <c r="I37" s="150">
+        <v>0</v>
+      </c>
+      <c r="J37" s="150">
+        <v>0</v>
+      </c>
+      <c r="K37" s="150">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -9430,7 +9433,7 @@
   <dimension ref="A1:EJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10270,7 +10273,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -10297,25 +10300,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="158"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="159" t="s">
         <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -10330,10 +10333,10 @@
       <c r="G2" s="2">
         <v>2025</v>
       </c>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="157" t="s">
+      <c r="I2" s="159" t="s">
         <v>141</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -10347,8 +10350,8 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
       <c r="D3" s="2" t="s">
         <v>193</v>
       </c>
@@ -10359,8 +10362,8 @@
         <v>82</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="2" t="s">
         <v>90</v>
       </c>
@@ -10368,8 +10371,8 @@
       <c r="L3" s="67"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="2" t="s">
         <v>185</v>
       </c>
@@ -10378,15 +10381,15 @@
         <v>103</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="67"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -11976,8 +11979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Base/Data/Inputs/Input_data_example.xlsx
+++ b/Base/Data/Inputs/Input_data_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data_base_case" sheetId="79" r:id="rId1"/>
@@ -2091,7 +2091,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="266">
   <si>
     <t>Red: Don't change the name without changing the Julia code</t>
   </si>
@@ -2528,9 +2528,6 @@
     <t>Fixed cost (EUR/Capacity installed/y)</t>
   </si>
   <si>
-    <t>Variable cost (EUR/Output)</t>
-  </si>
-  <si>
     <t>Fuel selling price (EUR/output)</t>
   </si>
   <si>
@@ -2870,12 +2867,6 @@
     <t>Base_case</t>
   </si>
   <si>
-    <t>Results_base_case</t>
-  </si>
-  <si>
-    <t>Results_sensitivities</t>
-  </si>
-  <si>
     <t>Change are made compared to the reference scenario. "Chains" of reference scenarios doesn't work.</t>
   </si>
   <si>
@@ -2892,6 +2883,12 @@
   </si>
   <si>
     <t>See Scenarios_definition sheet</t>
+  </si>
+  <si>
+    <t>Variable cost (EUR/output)</t>
+  </si>
+  <si>
+    <t>Results_example</t>
   </si>
 </sst>
 </file>
@@ -4391,10 +4388,10 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4483,13 +4480,13 @@
         <v>144</v>
       </c>
       <c r="V1" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="X1" s="54" t="s">
         <v>146</v>
-      </c>
-      <c r="X1" s="54" t="s">
-        <v>147</v>
       </c>
       <c r="Y1" s="57" t="s">
         <v>75</v>
@@ -4559,13 +4556,13 @@
         <v>144</v>
       </c>
       <c r="V2" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>75</v>
@@ -4703,7 +4700,7 @@
         <v>Electrical consumption (kWh/output)2025</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U4" s="15" t="str">
         <f t="shared" ref="U4:Y4" si="2">U2&amp;U3</f>
@@ -4711,7 +4708,7 @@
       </c>
       <c r="V4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>Variable cost (EUR/Output)2025</v>
+        <v>Variable cost (EUR/output)2025</v>
       </c>
       <c r="W4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4821,7 +4818,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="80" t="s">
         <v>67</v>
@@ -4898,7 +4895,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>83</v>
@@ -4979,7 +4976,7 @@
         <v>137</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="6"/>
@@ -5058,7 +5055,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="6"/>
@@ -5139,7 +5136,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" s="9">
         <f>ROW(D10)-ROW($E$5)</f>
@@ -5221,7 +5218,7 @@
         <v>137</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E11" s="9">
         <f>ROW(D11)-ROW($E$5)</f>
@@ -5231,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="151">
         <f>(2.2/(120/3.6))*10^9</f>
@@ -5293,13 +5290,13 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="154"/>
       <c r="B12" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="6"/>
@@ -5309,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5373,10 +5370,10 @@
         <v>116</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="6"/>
@@ -5453,10 +5450,10 @@
         <v>116</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="6"/>
@@ -5466,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="120">
         <v>0</v>
@@ -5534,7 +5531,7 @@
         <v>113</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="69" t="s">
         <v>65</v>
@@ -5611,7 +5608,7 @@
         <v>114</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>29</v>
@@ -5688,10 +5685,10 @@
         <v>115</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="6"/>
@@ -5701,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="50">
         <v>0</v>
@@ -5765,7 +5762,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="103" t="s">
         <v>30</v>
@@ -5842,7 +5839,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="149" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D19" s="103" t="s">
         <v>31</v>
@@ -5919,7 +5916,7 @@
         <v>112</v>
       </c>
       <c r="C20" s="149" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D20" s="103" t="s">
         <v>32</v>
@@ -5997,10 +5994,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="6"/>
@@ -6073,10 +6070,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="129" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="6"/>
@@ -6149,10 +6146,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23" s="128">
         <f t="shared" si="6"/>
@@ -6228,7 +6225,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>37</v>
@@ -6304,7 +6301,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>39</v>
@@ -6382,7 +6379,7 @@
         <v>RPU_ON_SP198-HH100</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>134</v>
@@ -6460,7 +6457,7 @@
         <v>RPU_ON_SP198-HH150</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>44</v>
@@ -6538,7 +6535,7 @@
         <v>RPU_ON_SP237-HH100</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>46</v>
@@ -6616,7 +6613,7 @@
         <v>RPU_ON_SP237-HH150</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>48</v>
@@ -6694,7 +6691,7 @@
         <v>RPU_ON_SP277-HH100</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>50</v>
@@ -6772,7 +6769,7 @@
         <v>RPU_ON_SP277-HH150</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>52</v>
@@ -6850,7 +6847,7 @@
         <v>RPU_ON_SP321-HH100</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>54</v>
@@ -6928,7 +6925,7 @@
         <v>RPU_ON_SP321-HH150</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>56</v>
@@ -7006,7 +7003,7 @@
         <v>RPU_OFF_SP379-HH100</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>58</v>
@@ -7084,7 +7081,7 @@
         <v>RPU_OFF_SP379-HH150</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>60</v>
@@ -7162,7 +7159,7 @@
         <v>RPU_OFF_SP450-HH100</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>62</v>
@@ -7240,7 +7237,7 @@
         <v>RPU_OFF_SP450-HH150</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>135</v>
@@ -7391,13 +7388,13 @@
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="154"/>
       <c r="B39" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="6"/>
@@ -7407,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -7470,7 +7467,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>34</v>
@@ -7547,7 +7544,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>35</v>
@@ -7624,7 +7621,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>36</v>
@@ -7759,13 +7756,13 @@
         <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -7831,7 +7828,7 @@
         <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -9454,17 +9451,17 @@
   <sheetData>
     <row r="1" spans="1:140" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:140" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:140" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>120</v>
@@ -9757,7 +9754,7 @@
       </c>
       <c r="CC4" s="16" t="str">
         <f>Data_base_case!V2&amp;Data_base_case!V3</f>
-        <v>Variable cost (EUR/Output)2025</v>
+        <v>Variable cost (EUR/output)2025</v>
       </c>
       <c r="CD4" s="16" t="e">
         <f>Data_base_case!#REF!&amp;Data_base_case!#REF!</f>
@@ -9999,7 +9996,7 @@
     <row r="5" spans="1:140" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>33</v>
@@ -10028,10 +10025,10 @@
         <v>Semi-islanded</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="44" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10054,10 +10051,10 @@
     <row r="7" spans="1:140" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
       <c r="B7" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="44" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10112,7 +10109,7 @@
         <v>138</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" s="31" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10138,7 +10135,7 @@
         <v>138</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="31" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10163,7 +10160,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="24" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10189,7 +10186,7 @@
         <v>127</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="24" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10214,10 +10211,10 @@
         <v>125</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" s="46" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10239,10 +10236,10 @@
     </row>
     <row r="14" spans="1:140" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" s="46" t="str">
         <f>Data_base_case!$P$1</f>
@@ -10273,8 +10270,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10319,10 +10316,10 @@
         <v>130</v>
       </c>
       <c r="C2" s="159" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>89</v>
@@ -10343,7 +10340,7 @@
         <v>76</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" s="67" t="s">
         <v>123</v>
@@ -10353,7 +10350,7 @@
       <c r="B3" s="159"/>
       <c r="C3" s="159"/>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>101</v>
@@ -10374,7 +10371,7 @@
       <c r="B4" s="159"/>
       <c r="C4" s="159"/>
       <c r="D4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -10427,7 +10424,7 @@
         <v>128</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>92</v>
@@ -10478,13 +10475,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>101</v>
@@ -10496,7 +10493,7 @@
         <v>2025</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I8" s="14" t="str">
         <f t="shared" ref="I8:I28" si="0">"2019"</f>
@@ -10506,10 +10503,10 @@
         <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -10536,13 +10533,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>101</v>
@@ -10554,7 +10551,7 @@
         <v>2025</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10564,10 +10561,10 @@
         <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -10594,13 +10591,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>101</v>
@@ -10612,7 +10609,7 @@
         <v>2025</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10622,10 +10619,10 @@
         <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -10652,13 +10649,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>101</v>
@@ -10670,7 +10667,7 @@
         <v>2025</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10680,10 +10677,10 @@
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -10710,13 +10707,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>101</v>
@@ -10728,7 +10725,7 @@
         <v>2025</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10738,10 +10735,10 @@
         <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -10768,13 +10765,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>101</v>
@@ -10786,7 +10783,7 @@
         <v>2025</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10796,10 +10793,10 @@
         <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -10826,13 +10823,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>101</v>
@@ -10844,7 +10841,7 @@
         <v>2025</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10854,10 +10851,10 @@
         <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -10884,13 +10881,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>101</v>
@@ -10902,7 +10899,7 @@
         <v>2025</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10912,10 +10909,10 @@
         <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -10942,13 +10939,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>101</v>
@@ -10960,7 +10957,7 @@
         <v>2025</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10970,10 +10967,10 @@
         <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -11000,13 +10997,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>89</v>
@@ -11018,7 +11015,7 @@
         <v>2025</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11028,10 +11025,10 @@
         <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -11058,13 +11055,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>89</v>
@@ -11076,7 +11073,7 @@
         <v>2025</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11086,10 +11083,10 @@
         <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -11116,13 +11113,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>89</v>
@@ -11134,7 +11131,7 @@
         <v>2025</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11144,10 +11141,10 @@
         <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -11174,13 +11171,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>101</v>
@@ -11192,7 +11189,7 @@
         <v>2025</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11202,10 +11199,10 @@
         <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -11232,13 +11229,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>101</v>
@@ -11250,7 +11247,7 @@
         <v>2025</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11260,10 +11257,10 @@
         <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -11290,13 +11287,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>101</v>
@@ -11308,7 +11305,7 @@
         <v>2025</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11318,10 +11315,10 @@
         <v>76</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -11348,13 +11345,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>101</v>
@@ -11366,7 +11363,7 @@
         <v>2025</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11376,10 +11373,10 @@
         <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -11406,13 +11403,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>101</v>
@@ -11424,7 +11421,7 @@
         <v>2025</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I24" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11434,10 +11431,10 @@
         <v>76</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -11464,13 +11461,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>101</v>
@@ -11482,7 +11479,7 @@
         <v>2025</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11492,10 +11489,10 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
@@ -11522,13 +11519,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>101</v>
@@ -11540,7 +11537,7 @@
         <v>2025</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I26" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11550,10 +11547,10 @@
         <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
@@ -11580,13 +11577,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>101</v>
@@ -11598,7 +11595,7 @@
         <v>2025</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I27" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11608,10 +11605,10 @@
         <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -11638,13 +11635,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>101</v>
@@ -11656,7 +11653,7 @@
         <v>2025</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I28" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11666,10 +11663,10 @@
         <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -11979,7 +11976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -11995,66 +11992,66 @@
   <sheetData>
     <row r="1" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="58">
         <v>2023</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="C3" s="58" t="s">
         <v>201</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>202</v>
       </c>
       <c r="D3" s="58">
         <v>2023</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="34"/>
     </row>
@@ -12064,19 +12061,19 @@
         <v>Adams2019</v>
       </c>
       <c r="B4" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>206</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>207</v>
       </c>
       <c r="D4" s="58">
         <v>2019</v>
       </c>
       <c r="E4" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>208</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -12085,19 +12082,19 @@
         <v>Papadias2021</v>
       </c>
       <c r="B5" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>211</v>
       </c>
       <c r="D5" s="58">
         <v>2021</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12106,19 +12103,19 @@
         <v>Armijo2020</v>
       </c>
       <c r="B6" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>213</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>214</v>
       </c>
       <c r="D6" s="58">
         <v>2020</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -12127,80 +12124,80 @@
         <v>IEA2019</v>
       </c>
       <c r="B7" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>216</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>217</v>
       </c>
       <c r="D7" s="58">
         <v>2019</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="C8" s="58" t="s">
         <v>221</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>222</v>
       </c>
       <c r="D8" s="58">
         <v>2023</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="C9" s="58" t="s">
         <v>225</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>226</v>
       </c>
       <c r="D9" s="58">
         <v>2023</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="58">
         <v>2020</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -12209,59 +12206,59 @@
         <v>Ikäheimo2018</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>233</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>234</v>
       </c>
       <c r="D11" s="58">
         <v>2018</v>
       </c>
       <c r="E11" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>235</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>237</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>238</v>
       </c>
       <c r="D12" s="58">
         <v>2020</v>
       </c>
       <c r="E12" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>239</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>243</v>
-      </c>
       <c r="C13" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" s="58">
         <v>2021</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -12562,101 +12559,101 @@
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G114" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G117" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B118" s="64"/>
       <c r="C118" s="2"/>
       <c r="G118" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G120" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G124" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G126" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G127" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G128" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G129" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G130" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B131" s="62"/>
       <c r="G131" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G132" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G133" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G134" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G135" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G136" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G137" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G138" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B139" s="2"/>
       <c r="G139" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
